--- a/metody/metody/Function.xlsx
+++ b/metody/metody/Function.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\c++\metody\metody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E446DE57-4CD1-465B-AC70-105580380B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C720AD-683A-4470-ABAE-2CEBB281E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B21E2B8C-5A46-4FB2-9090-C93780F903BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -521,7 +532,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2077,7 +2088,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
